--- a/apifile/NbCommandController.xlsx
+++ b/apifile/NbCommandController.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A784D773-4962-4E16-9B52-ADFBE2C312CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19C767-3248-4576-BA7A-4097BC1CF91E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/light/nb/switch/773475252786049024/1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>put</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,79 +71,74 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/light/nb/switch/773475252786049024/0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>关灯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/light/nb/dimming/773475252786049024/10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>调光</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/light/nb/updateLightData/773475252786049024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>更新路灯数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/light/batch/switchBatch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>群控开灯</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群控关灯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群控调光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/light/batch/switchBatch</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/light/batch/dimming</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/light/nb/switch/732917023505518592/1</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/light/nb/switch/732917023505518592/0</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/light/nb/dimming/732917023505518592/10</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/light/nb/updateLightData/732917023505518592</t>
   </si>
   <si>
     <t>{
 	"nbLightBatch": {
 		"on": 1,
-		"deviceIds": ["773475252786049024"]
+		"deviceIds": ["732917023505518592"]
 	}
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
 	"nbLightBatch": {
 		"on": 0,
-		"deviceIds": ["773475252786049024"]
+		"deviceIds": ["732917023505518592"]
 	}
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>群控关灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
 	"nbLightBatch": {
 		"bri": 50,
-		"deviceIds": ["773475252786049024"]
+		"deviceIds": ["732917023505518592"]
 	}
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/light/batch/dimming</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>群控调光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,12 +503,12 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="78.5" customWidth="1"/>
+    <col min="1" max="1" width="82" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
     <col min="7" max="7" width="21.125" customWidth="1"/>
   </cols>
@@ -550,10 +541,10 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -562,15 +553,15 @@
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -579,15 +570,15 @@
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -596,15 +587,18 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -613,18 +607,18 @@
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -633,18 +627,15 @@
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -653,18 +644,18 @@
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -673,19 +664,19 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{752977B4-2894-480B-860C-A38336252BBE}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{62B315BD-F4CE-454C-8C38-319B46ABEF36}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{D459A76C-CF9D-4BA2-85E6-DA4B59664030}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{A7DDA1AD-D55B-42C8-8B94-47A8B8DCD7DF}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{E36B3BF7-B6B5-4ECA-8D63-5549A5010825}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{6A398CE0-A3A2-45E3-81E7-F386A2FE56BC}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{EF05AB87-3820-4BB8-B960-9514AC8C8C84}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://island.dev.iot-cas.com:8081/island/light/nb/switch/773475252786049024/1" xr:uid="{752977B4-2894-480B-860C-A38336252BBE}"/>
+    <hyperlink ref="A7" r:id="rId2" display="http://island.dev.iot-cas.com:8081/island/light/nb/switch/773475252786049024/0" xr:uid="{62B315BD-F4CE-454C-8C38-319B46ABEF36}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://island.dev.iot-cas.com:8081/island/light/nb/dimming/773475252786049024/10" xr:uid="{D459A76C-CF9D-4BA2-85E6-DA4B59664030}"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://island.dev.iot-cas.com:8081/island/light/nb/updateLightData/773475252786049024" xr:uid="{A7DDA1AD-D55B-42C8-8B94-47A8B8DCD7DF}"/>
+    <hyperlink ref="A5" r:id="rId5" display="http://island.dev.iot-cas.com:8081/island/light/batch/switchBatch" xr:uid="{E36B3BF7-B6B5-4ECA-8D63-5549A5010825}"/>
+    <hyperlink ref="A8" r:id="rId6" display="http://island.dev.iot-cas.com:8081/island/light/batch/switchBatch" xr:uid="{6A398CE0-A3A2-45E3-81E7-F386A2FE56BC}"/>
+    <hyperlink ref="A6" r:id="rId7" display="http://island.dev.iot-cas.com:8081/island/light/batch/dimming" xr:uid="{EF05AB87-3820-4BB8-B960-9514AC8C8C84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
